--- a/output_data.xlsx
+++ b/output_data.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>State-By-State Breakdown</t>
+          <t>Unnamed: 0</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -486,11 +486,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>State</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
           <t>Homes</t>
@@ -538,11 +534,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Alaska</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="n">
         <v>20</v>
       </c>
@@ -572,11 +564,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Ala.</t>
-        </is>
-      </c>
+      <c r="A4" t="inlineStr"/>
       <c r="B4" t="n">
         <v>225</v>
       </c>
@@ -606,11 +594,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Ark.</t>
-        </is>
-      </c>
+      <c r="A5" t="inlineStr"/>
       <c r="B5" t="n">
         <v>218</v>
       </c>
@@ -640,11 +624,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Ariz.</t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr"/>
       <c r="B6" t="n">
         <v>141</v>
       </c>
@@ -674,11 +654,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Calif.</t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr"/>
       <c r="B7" t="n">
         <v>1169</v>
       </c>
@@ -708,11 +684,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Colo.</t>
-        </is>
-      </c>
+      <c r="A8" t="inlineStr"/>
       <c r="B8" t="n">
         <v>214</v>
       </c>
@@ -742,11 +714,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Conn.</t>
-        </is>
-      </c>
+      <c r="A9" t="inlineStr"/>
       <c r="B9" t="n">
         <v>203</v>
       </c>
@@ -776,11 +744,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>D.C.</t>
-        </is>
-      </c>
+      <c r="A10" t="inlineStr"/>
       <c r="B10" t="n">
         <v>17</v>
       </c>
@@ -810,11 +774,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Del.</t>
-        </is>
-      </c>
+      <c r="A11" t="inlineStr"/>
       <c r="B11" t="n">
         <v>44</v>
       </c>
@@ -844,11 +804,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Fla.</t>
-        </is>
-      </c>
+      <c r="A12" t="inlineStr"/>
       <c r="B12" t="n">
         <v>698</v>
       </c>
@@ -878,11 +834,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Ga.</t>
-        </is>
-      </c>
+      <c r="A13" t="inlineStr"/>
       <c r="B13" t="n">
         <v>357</v>
       </c>
@@ -912,11 +864,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Guam</t>
-        </is>
-      </c>
+      <c r="A14" t="inlineStr"/>
       <c r="B14" t="n">
         <v>1</v>
       </c>
@@ -946,11 +894,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Hawaii</t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr"/>
       <c r="B15" t="n">
         <v>42</v>
       </c>
@@ -980,11 +924,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Iowa</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr"/>
       <c r="B16" t="n">
         <v>409</v>
       </c>
@@ -1014,11 +954,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Idaho</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr"/>
       <c r="B17" t="n">
         <v>81</v>
       </c>
@@ -1048,11 +984,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Ill.</t>
-        </is>
-      </c>
+      <c r="A18" t="inlineStr"/>
       <c r="B18" t="n">
         <v>688</v>
       </c>
@@ -1082,11 +1014,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Ind.</t>
-        </is>
-      </c>
+      <c r="A19" t="inlineStr"/>
       <c r="B19" t="n">
         <v>518</v>
       </c>
@@ -1116,11 +1044,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Kan.</t>
-        </is>
-      </c>
+      <c r="A20" t="inlineStr"/>
       <c r="B20" t="n">
         <v>311</v>
       </c>
@@ -1150,11 +1074,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Ky.</t>
-        </is>
-      </c>
+      <c r="A21" t="inlineStr"/>
       <c r="B21" t="n">
         <v>275</v>
       </c>
@@ -1184,11 +1104,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>La.</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr"/>
       <c r="B22" t="n">
         <v>269</v>
       </c>
@@ -1218,11 +1134,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Mass.</t>
-        </is>
-      </c>
+      <c r="A23" t="inlineStr"/>
       <c r="B23" t="n">
         <v>348</v>
       </c>
@@ -1252,11 +1164,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Md.</t>
-        </is>
-      </c>
+      <c r="A24" t="inlineStr"/>
       <c r="B24" t="n">
         <v>225</v>
       </c>
@@ -1286,11 +1194,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Me.</t>
-        </is>
-      </c>
+      <c r="A25" t="inlineStr"/>
       <c r="B25" t="n">
         <v>85</v>
       </c>
@@ -1320,11 +1224,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Mich.</t>
-        </is>
-      </c>
+      <c r="A26" t="inlineStr"/>
       <c r="B26" t="n">
         <v>427</v>
       </c>
@@ -1354,11 +1254,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Minn.</t>
-        </is>
-      </c>
+      <c r="A27" t="inlineStr"/>
       <c r="B27" t="n">
         <v>349</v>
       </c>
@@ -1388,11 +1284,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Mo.</t>
-        </is>
-      </c>
+      <c r="A28" t="inlineStr"/>
       <c r="B28" t="n">
         <v>506</v>
       </c>
@@ -1422,11 +1314,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Miss.</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr"/>
       <c r="B29" t="n">
         <v>202</v>
       </c>
@@ -1456,11 +1344,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Mont.</t>
-        </is>
-      </c>
+      <c r="A30" t="inlineStr"/>
       <c r="B30" t="n">
         <v>61</v>
       </c>
@@ -1490,11 +1374,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>N.C.</t>
-        </is>
-      </c>
+      <c r="A31" t="inlineStr"/>
       <c r="B31" t="n">
         <v>420</v>
       </c>
@@ -1524,11 +1404,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>N.D.</t>
-        </is>
-      </c>
+      <c r="A32" t="inlineStr"/>
       <c r="B32" t="n">
         <v>76</v>
       </c>
@@ -1558,11 +1434,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Neb.</t>
-        </is>
-      </c>
+      <c r="A33" t="inlineStr"/>
       <c r="B33" t="n">
         <v>186</v>
       </c>
@@ -1592,11 +1464,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>N.H.</t>
-        </is>
-      </c>
+      <c r="A34" t="inlineStr"/>
       <c r="B34" t="n">
         <v>74</v>
       </c>
@@ -1626,11 +1494,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>N.J.</t>
-        </is>
-      </c>
+      <c r="A35" t="inlineStr"/>
       <c r="B35" t="n">
         <v>348</v>
       </c>
@@ -1660,11 +1524,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>N.M.</t>
-        </is>
-      </c>
+      <c r="A36" t="inlineStr"/>
       <c r="B36" t="n">
         <v>68</v>
       </c>
@@ -1694,11 +1554,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Nev.</t>
-        </is>
-      </c>
+      <c r="A37" t="inlineStr"/>
       <c r="B37" t="n">
         <v>67</v>
       </c>
@@ -1728,11 +1584,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>N.Y.</t>
-        </is>
-      </c>
+      <c r="A38" t="inlineStr"/>
       <c r="B38" t="n">
         <v>606</v>
       </c>
@@ -1762,11 +1614,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Ohio</t>
-        </is>
-      </c>
+      <c r="A39" t="inlineStr"/>
       <c r="B39" t="n">
         <v>940</v>
       </c>
@@ -1796,11 +1644,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Okla.</t>
-        </is>
-      </c>
+      <c r="A40" t="inlineStr"/>
       <c r="B40" t="n">
         <v>290</v>
       </c>
@@ -1830,11 +1674,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Ore.</t>
-        </is>
-      </c>
+      <c r="A41" t="inlineStr"/>
       <c r="B41" t="n">
         <v>129</v>
       </c>
@@ -1864,11 +1704,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Pa.</t>
-        </is>
-      </c>
+      <c r="A42" t="inlineStr"/>
       <c r="B42" t="n">
         <v>671</v>
       </c>
@@ -1898,11 +1734,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>P.R.</t>
-        </is>
-      </c>
+      <c r="A43" t="inlineStr"/>
       <c r="B43" t="n">
         <v>6</v>
       </c>
@@ -1932,11 +1764,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>R.I.</t>
-        </is>
-      </c>
+      <c r="A44" t="inlineStr"/>
       <c r="B44" t="n">
         <v>74</v>
       </c>
@@ -1966,11 +1794,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>S.C.</t>
-        </is>
-      </c>
+      <c r="A45" t="inlineStr"/>
       <c r="B45" t="n">
         <v>189</v>
       </c>
@@ -2000,11 +1824,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>S.D.</t>
-        </is>
-      </c>
+      <c r="A46" t="inlineStr"/>
       <c r="B46" t="n">
         <v>98</v>
       </c>
@@ -2034,11 +1854,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Tenn.</t>
-        </is>
-      </c>
+      <c r="A47" t="inlineStr"/>
       <c r="B47" t="n">
         <v>309</v>
       </c>
@@ -2068,11 +1884,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Tex.</t>
-        </is>
-      </c>
+      <c r="A48" t="inlineStr"/>
       <c r="B48" t="n">
         <v>1190</v>
       </c>
@@ -2102,11 +1914,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Utah</t>
-        </is>
-      </c>
+      <c r="A49" t="inlineStr"/>
       <c r="B49" t="n">
         <v>98</v>
       </c>
@@ -2136,11 +1944,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Va.</t>
-        </is>
-      </c>
+      <c r="A50" t="inlineStr"/>
       <c r="B50" t="n">
         <v>289</v>
       </c>
@@ -2170,11 +1974,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Vt.</t>
-        </is>
-      </c>
+      <c r="A51" t="inlineStr"/>
       <c r="B51" t="n">
         <v>34</v>
       </c>
@@ -2204,11 +2004,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Wash.</t>
-        </is>
-      </c>
+      <c r="A52" t="inlineStr"/>
       <c r="B52" t="n">
         <v>195</v>
       </c>
@@ -2238,11 +2034,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Wis.</t>
-        </is>
-      </c>
+      <c r="A53" t="inlineStr"/>
       <c r="B53" t="n">
         <v>327</v>
       </c>
@@ -2272,11 +2064,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>W.Va.</t>
-        </is>
-      </c>
+      <c r="A54" t="inlineStr"/>
       <c r="B54" t="n">
         <v>122</v>
       </c>
@@ -2306,11 +2094,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Wyo.</t>
-        </is>
-      </c>
+      <c r="A55" t="inlineStr"/>
       <c r="B55" t="n">
         <v>35</v>
       </c>

--- a/output_data.xlsx
+++ b/output_data.xlsx
@@ -648,7 +648,7 @@
         <v>2122719</v>
       </c>
       <c r="M2">
-        <v>0.68</v>
+        <v>0.7144444444444445</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -688,9 +688,6 @@
       <c r="L3">
         <v>165283</v>
       </c>
-      <c r="M3">
-        <v>0.7622222222222222</v>
-      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
@@ -730,7 +727,7 @@
         <v>1934486</v>
       </c>
       <c r="M4">
-        <v>0.8733333333333334</v>
+        <v>0.6411111111111111</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -770,9 +767,6 @@
       <c r="L5">
         <v>1740574</v>
       </c>
-      <c r="M5">
-        <v>0.7944444444444446</v>
-      </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
@@ -812,7 +806,7 @@
         <v>15833208</v>
       </c>
       <c r="M6">
-        <v>0.7144444444444445</v>
+        <v>0.7966666666666666</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -852,9 +846,6 @@
       <c r="L7">
         <v>2201353</v>
       </c>
-      <c r="M7">
-        <v>0.64</v>
-      </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
@@ -893,9 +884,6 @@
       <c r="L8">
         <v>3763507</v>
       </c>
-      <c r="M8">
-        <v>0.8744444444444445</v>
-      </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
@@ -934,9 +922,6 @@
       <c r="L9">
         <v>699492</v>
       </c>
-      <c r="M9">
-        <v>0.6277777777777778</v>
-      </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
@@ -975,9 +960,6 @@
       <c r="L10">
         <v>424978</v>
       </c>
-      <c r="M10">
-        <v>0.83</v>
-      </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
@@ -1017,7 +999,7 @@
         <v>10721617</v>
       </c>
       <c r="M11">
-        <v>0.6411111111111111</v>
+        <v>0.8199999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1057,9 +1039,6 @@
       <c r="L12">
         <v>4334554</v>
       </c>
-      <c r="M12">
-        <v>0.8233333333333333</v>
-      </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
@@ -1098,9 +1077,6 @@
       <c r="L13">
         <v>604409</v>
       </c>
-      <c r="M13">
-        <v>0.7655555555555557</v>
-      </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
@@ -1140,7 +1116,7 @@
         <v>632175</v>
       </c>
       <c r="M14">
-        <v>0.8155555555555556</v>
+        <v>0.7622222222222222</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1181,7 +1157,7 @@
         <v>7559970</v>
       </c>
       <c r="M15">
-        <v>0.8199999999999998</v>
+        <v>0.8155555555555556</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1222,7 +1198,7 @@
         <v>5330743</v>
       </c>
       <c r="M16">
-        <v>0.8233333333333334</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1262,9 +1238,6 @@
       <c r="L17">
         <v>2507578</v>
       </c>
-      <c r="M17">
-        <v>0.7966666666666666</v>
-      </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
@@ -1304,7 +1277,7 @@
         <v>1874096</v>
       </c>
       <c r="M18">
-        <v>0.8233333333333334</v>
+        <v>0.6277777777777778</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1345,7 +1318,7 @@
         <v>2647675</v>
       </c>
       <c r="M19">
-        <v>0.7944444444444444</v>
+        <v>0.7655555555555557</v>
       </c>
     </row>
     <row r="20" spans="1:13">
